--- a/biology/Botanique/Banane_plantain/Banane_plantain.xlsx
+++ b/biology/Botanique/Banane_plantain/Banane_plantain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bananes plantains[1] sont un groupe de cultivars de bananiers. Ce sont des féculents du genre Musa qui  sont mangés cuits[2].
-La banane plantain est un aliment de base, majeur en Afrique occidentale et centrale, dans les îles des Caraïbes, en Amérique centrale et dans certains pays d’Amérique du Sud[3]. Le genre Musa est indigène des régions tropicales d’Asie du Sud-Est et d’Océanie[4]. La banane fructifie toute l’année, ce qui en fait un aliment de base en toute saison[5].
-La banane plantain est simplement appelée « plantain » en Afrique. Ce fruit, consommé comme un féculent, prend divers noms selon le lieu géographique : « banane cochon » dans certaines régions, « banane farine » ou « banane jaune » dans les Antilles, « banane poingo » en Nouvelle-Calédonie, ou encore « banane à cuire »[6],[7],[8],[9],[10]
-La banane plantain a une saveur relativement neutre et une texture douce une fois cuite ; elle peut être consommée crue ; mais, elle est le plus souvent préparée frite, bouillie ou transformée en farine ou en pâte[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bananes plantains sont un groupe de cultivars de bananiers. Ce sont des féculents du genre Musa qui  sont mangés cuits.
+La banane plantain est un aliment de base, majeur en Afrique occidentale et centrale, dans les îles des Caraïbes, en Amérique centrale et dans certains pays d’Amérique du Sud. Le genre Musa est indigène des régions tropicales d’Asie du Sud-Est et d’Océanie. La banane fructifie toute l’année, ce qui en fait un aliment de base en toute saison.
+La banane plantain est simplement appelée « plantain » en Afrique. Ce fruit, consommé comme un féculent, prend divers noms selon le lieu géographique : « banane cochon » dans certaines régions, « banane farine » ou « banane jaune » dans les Antilles, « banane poingo » en Nouvelle-Calédonie, ou encore « banane à cuire »
+La banane plantain a une saveur relativement neutre et une texture douce une fois cuite ; elle peut être consommée crue ; mais, elle est le plus souvent préparée frite, bouillie ou transformée en farine ou en pâte.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Vocabulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Afrique et dans l'île de Tenerife, on parlait autrefois de platane pour désigner le bananier, et le fruit continue de s'appeler platano en espagnol ; ainsi, dans la relation qu'il fait de sa visite de l'île de Tenerife, Jean-Baptiste Gaby, en 1689, explique que « les bananes sont les fruits de l'arbre Platane. Ils entroient pour lors dans leur maturité; c'est un fruit de la grosseur et longueur de nos petits concombres, il est d'un goût fort douceâtre &amp; un peu sauvage, quand on n'y est pas accoûtumé. Les espagnols y voient, disent-ils, au milieu l'image d'un crucifix, quand on les coupe en biaisant ; les plus crédules de nos françois pensoient l'y voir : mais quelque soin que nous prission à l'examiner, nous en pûmes jamais l'y voir »[11].
-De nombreuses bananes à cuire sont appelées plantain[12] (/ˈplæntɪn/, /plænˈteɪn/, /ˈplɑːntɪn/) ou « bananes vertes ». Dans l'usage botanique, le terme « plantain » est utilisé uniquement pour les vrais plantains, tandis que d'autres cultivars féculents utilisés pour la cuisson sont appelés « bananes à cuire ». Les vrais plantain sont des cultivars à cuire appartenant au groupe AAB, tandis que la banane plantain sont tout cultivar à cuire appartenant aux groupes AAB, AAA, ABB ou BBB. Le nom scientifique actuellement accepté pour tous ces cultivars de ces groupes est Musa × paradisiaca[13]. Banane Fe'i (Musa × troglodytarum) des îles du Pacifique sont souvent consommées rôties ou bouillies, et sont donc officieusement appelées « plantain de montagne », mais elles n'appartiennent à aucune des espèces dont descendent tous les cultivars de bananiers modernes[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Afrique et dans l'île de Tenerife, on parlait autrefois de platane pour désigner le bananier, et le fruit continue de s'appeler platano en espagnol ; ainsi, dans la relation qu'il fait de sa visite de l'île de Tenerife, Jean-Baptiste Gaby, en 1689, explique que « les bananes sont les fruits de l'arbre Platane. Ils entroient pour lors dans leur maturité; c'est un fruit de la grosseur et longueur de nos petits concombres, il est d'un goût fort douceâtre &amp; un peu sauvage, quand on n'y est pas accoûtumé. Les espagnols y voient, disent-ils, au milieu l'image d'un crucifix, quand on les coupe en biaisant ; les plus crédules de nos françois pensoient l'y voir : mais quelque soin que nous prission à l'examiner, nous en pûmes jamais l'y voir ».
+De nombreuses bananes à cuire sont appelées plantain (/ˈplæntɪn/, /plænˈteɪn/, /ˈplɑːntɪn/) ou « bananes vertes ». Dans l'usage botanique, le terme « plantain » est utilisé uniquement pour les vrais plantains, tandis que d'autres cultivars féculents utilisés pour la cuisson sont appelés « bananes à cuire ». Les vrais plantain sont des cultivars à cuire appartenant au groupe AAB, tandis que la banane plantain sont tout cultivar à cuire appartenant aux groupes AAB, AAA, ABB ou BBB. Le nom scientifique actuellement accepté pour tous ces cultivars de ces groupes est Musa × paradisiaca. Banane Fe'i (Musa × troglodytarum) des îles du Pacifique sont souvent consommées rôties ou bouillies, et sont donc officieusement appelées « plantain de montagne », mais elles n'appartiennent à aucune des espèces dont descendent tous les cultivars de bananiers modernes.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bananes plantains contiennent plus d'amidon et moins de sucre que la banane dessert, ils sont donc généralement cuits ou transformés avant d'être consommés. Ils sont généralement bouillis ou frits lorsqu'ils sont consommés verts, et une fois transformés, ils peuvent être transformés en farine et transformés en produits de boulangerie tels que des gâteaux, du pain et des crêpes. Banane plantains verts peuvent également être bouillis et réduits en purée, puis utilisés comme épaississants pour la soupes[15]. La pulpe du plantain vert est généralement dure, la peau étant souvent si rigide qu'elle doit être coupée avec un couteau pour être retirée[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bananes plantains contiennent plus d'amidon et moins de sucre que la banane dessert, ils sont donc généralement cuits ou transformés avant d'être consommés. Ils sont généralement bouillis ou frits lorsqu'ils sont consommés verts, et une fois transformés, ils peuvent être transformés en farine et transformés en produits de boulangerie tels que des gâteaux, du pain et des crêpes. Banane plantains verts peuvent également être bouillis et réduits en purée, puis utilisés comme épaississants pour la soupes. La pulpe du plantain vert est généralement dure, la peau étant souvent si rigide qu'elle doit être coupée avec un couteau pour être retirée.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La banane plantain est généralement plus grosse et plus longue que la banane dessert et sa chair est parfois légèrement rosée et relativement pauvre en sucre mais beaucoup plus riche en amidon, ce qui la rend plus ferme et lui confère une bonne tenue à la cuisson. Sa peau est aussi plus verdâtre. Bien que tout aussi savoureuses crues que les bananes dessert[réf. nécessaire], la chair des plaintains est plus ferme et il est plutôt d'usage de les consommer cuites car elles ne s'effondrent pas à la cuisson et sont le féculent qui accompagne les  viandes, poulets et poissons.
 En Afrique subsaharienne, la banane plantain est le plus souvent consommée à maturité, bouillie, grillée ou frite. Cuisinée avant complète maturité, elle est à ce stade plus ferme et moins sucrée avec une texture assez proche des tubercules farineux. Elle est  blanchie (passée à l'eau bouillante salée) pour  en faciliter l'épeluchage, puis, comme la pomme de terre, elle est frite ou cuite en   ragoût. Elle peut être servie entière ou en purée, frite à l'huile (elle est alors appelée alloco en Côte d'Ivoire) coupée dans sa longueur ou en tranches fines comme des chips, enfilée sur une brochette, en petits cylindres alternés avec des petits cubes de viande, etc. On peut également la frire dans l'huile après l'avoir pilée et mélangée avec un peu de farine, cela donne du claclo. Elle peut aussi être découpée en lamelles et séchée, avec un peu de sel.
@@ -612,9 +630,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des banane plantain sont du groupes AAB, AAA, ABB ou BBB[17]. Botaniquement, le plantain n'est pas une espèce différente de la banane dessert mais seulement un cultigroupe.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des banane plantain sont du groupes AAB, AAA, ABB ou BBB. Botaniquement, le plantain n'est pas une espèce différente de la banane dessert mais seulement un cultigroupe.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré son adaptation à des écosystèmes variés et son potentiel élevé de production, la production de bananier plantain reste une culture marginale[réf. nécessaire], notamment à cause de l’indisponibilité de matériel végétal de bonne qualité et l’utilisation fréquente de mauvais rejets. La production de la banane plantain peut durer de 12 à 15 mois de la multiplication des rejets à la récolte. Toutefois, plusieurs techniques de production intensive ont été mises au point telles que, la culture in vitro et le plant issu des fragments de tige (PIF) qui permettent de produire de très nombreux rejets sains en 3 mois[18].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré son adaptation à des écosystèmes variés et son potentiel élevé de production, la production de bananier plantain reste une culture marginale[réf. nécessaire], notamment à cause de l’indisponibilité de matériel végétal de bonne qualité et l’utilisation fréquente de mauvais rejets. La production de la banane plantain peut durer de 12 à 15 mois de la multiplication des rejets à la récolte. Toutefois, plusieurs techniques de production intensive ont été mises au point telles que, la culture in vitro et le plant issu des fragments de tige (PIF) qui permettent de produire de très nombreux rejets sains en 3 mois.
 </t>
         </is>
       </c>
